--- a/biology/Mycologie/Chromista/Chromista.xlsx
+++ b/biology/Mycologie/Chromista/Chromista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chromistes[a] (Chromista) sont un règne d'organismes uni- et pluricellulaires eucaryotes regroupant des taxons historiquement considérés comme des protozoaires (Foraminifères, Radiolaires, Ciliés, etc.), comme des champignons (Oomycètes, Labyrinthulomycètes, etc.) et des algues (Algues brunes, Diatomées, etc.).
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce règne a été proposé par le biologiste britannique Thomas Cavalier-Smith en 1981[1]. Les Chromista étaient d'abord un clade supposé d'organismes eucaryotes pour la plupart photosynthétiques, regroupant également certains organismes autrefois classés parmi les « champignons inférieurs » — donc hétérotrophes. La pertinence de ce clade a été remise en cause par des études de 2007[2] rapprochant les Stramenopiles des Rhizaria. Il a donc été proposé d'utiliser le terme de Chromista pour désigner l'ensemble présumé monophylétique formé par les Harosa et les Hacrobia à la place du terme de Chromalveolata au sens large[3].
-Les Chromistes sont moins diversifiés que les algues vertes mais plus que les algues rouges[4].
-Le groupe Chromista est polyphylétique, alors, ce nom n'est plus utilisé pour le groupe[5],[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce règne a été proposé par le biologiste britannique Thomas Cavalier-Smith en 1981. Les Chromista étaient d'abord un clade supposé d'organismes eucaryotes pour la plupart photosynthétiques, regroupant également certains organismes autrefois classés parmi les « champignons inférieurs » — donc hétérotrophes. La pertinence de ce clade a été remise en cause par des études de 2007 rapprochant les Stramenopiles des Rhizaria. Il a donc été proposé d'utiliser le terme de Chromista pour désigner l'ensemble présumé monophylétique formé par les Harosa et les Hacrobia à la place du terme de Chromalveolata au sens large.
+Les Chromistes sont moins diversifiés que les algues vertes mais plus que les algues rouges.
+Le groupe Chromista est polyphylétique, alors, ce nom n'est plus utilisé pour le groupe.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Chromista dérive du grec χρῶμα / chróma, couleur, en référence aux pigments de ces organismes qui leur donne une teinte plus ou moins soutenue. Le terme fut inventé en 1981 par le biologiste britannique Thomas Cavalier-Smith, sur la base de termes plus anciens, par exemple Chromophyta.
 </t>
@@ -575,7 +591,9 @@
           <t>Caractéristiques propres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve des caractéristiques propres au groupe, qui peuvent avoir disparu secondairement :
 Un réticulum périplastidial, situé entre les deux enveloppes du chloroplaste et les deux membranes externes.
@@ -615,7 +633,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus ancien fossile connu présumé date du Précambrien (700 Ma).
 </t>
@@ -646,7 +666,9 @@
           <t>Liste des embranchements/divisions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon AlgaeBase (29 janvier 2022) :
 Embranchement des Bacillariophyta  Karsten
@@ -666,7 +688,7 @@
 Embranchement des Oomycota  Arx
 infra-règne des Rhizaria
 Embranchement des Foraminiferida  d'Orbigny
-Selon Cavalier-Smith (1981, 2004, 2010)[8],[9],[3] :
+Selon Cavalier-Smith (1981, 2004, 2010) :
 sous-règne des Harosa (Cavalier-Smith 2010)
 infrarègne des Heterokonta (Cavalier-Smith 1986)
 embranchement des Bigyra (Cavalier-Smith 1998)
@@ -690,9 +712,9 @@
 embranchement des Cryptista (Cavalier-Smith 1989)
 embranchement des Haptophyta (Hibberd 1976)
 embranchement des Heliozoa (Haeckel 1862)
-Selon ITIS      (13 mars 2012)[10] :
+Selon ITIS      (13 mars 2012) :
 division des Bacillariophyta
-Selon Catalogue of Life                                   (13 mars 2012)[11] :
+Selon Catalogue of Life                                   (13 mars 2012) :
 embranchement des Cryptophyta
 embranchement des Haptophyta
 embranchement des Hyphochytriomycota
@@ -701,7 +723,7 @@
 embranchement des Oomycota
 embranchement des Sagenista (en)
 embranchement des Chromista phylum incertae sedis
-Selon World Register of Marine Species                               (13 mars 2012)[12] :
+Selon World Register of Marine Species                               (13 mars 2012) :
 sous-règne Hacrobia
 embranchement des Cryptophyta
 embranchement des Haptophyta
@@ -718,7 +740,7 @@
 embranchement des Cercozoa
 embranchement des Foraminifera
 embranchement des Radiozoa
-Selon Aubert (2017)[13] :
+Selon Aubert (2017) :
 imperium Eukaryota
 regnum Chromista
 subregnum Hacrobia
